--- a/src/main/resources/static-data/users.xlsx
+++ b/src/main/resources/static-data/users.xlsx
@@ -16,12 +16,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>nastya</t>
   </si>
   <si>
-    <t>andey</t>
+    <t>andrey</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>guest</t>
   </si>
 </sst>
 </file>
@@ -359,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -390,6 +399,39 @@
       </c>
       <c r="C2">
         <v>-1413260433</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3599307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>92668751</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>98708952</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/static-data/users.xlsx
+++ b/src/main/resources/static-data/users.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="135" windowWidth="20730" windowHeight="11760"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>nastya</t>
   </si>
@@ -32,12 +32,21 @@
   <si>
     <t>guest</t>
   </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,7 +80,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -84,9 +93,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -124,7 +133,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -158,6 +167,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -192,9 +202,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -367,70 +378,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>-946852072</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>-1413260433</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>3599307</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>92668751</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>98708952</v>
       </c>
     </row>
@@ -440,24 +462,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
